--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ACCT3210_materials/slides/S8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D587B792-467A-9A46-A348-9E085281F5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD361F-F4B2-D947-8CE1-93F97CC908CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51240" yWindow="600" windowWidth="25460" windowHeight="42500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Option 1 benefit without tax deduction</t>
+  </si>
+  <si>
+    <t>Arbitrage is limited by the rates on the accounts.</t>
+  </si>
+  <si>
+    <t>Note that you can come up with any number of strategies that change this answer</t>
+  </si>
+  <si>
+    <t>For example if you only pull 50k!</t>
   </si>
 </sst>
 </file>
@@ -293,9 +302,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Comma" xfId="19" builtinId="3"/>
@@ -687,10 +696,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -734,7 +743,7 @@
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
@@ -754,7 +763,7 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -794,7 +803,7 @@
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
@@ -814,7 +823,7 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -854,11 +863,11 @@
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>D$18*(1-$H11)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>((1+E$18)^$H10*(1-$H11)+$H11)^(1/$H10)-1</f>
         <v>7.3621759291163436E-2</v>
       </c>
@@ -874,7 +883,7 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -882,7 +891,7 @@
         <f>D$18*(1-$H12)</f>
         <v>0.06</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>((1+E$18)^$H10*(1-$H12)+$H12)^(1/$H10)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
@@ -918,11 +927,11 @@
         <f>D$18*(1-$H14)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f>((1+E$18)^$H13*(1-$H14)+$H14)^(1/$H13)-1</f>
         <v>7.9279124712805515E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f>((1+F$18)^$H13*(1-$H14-0.1)+$H14+0.1)^(1/$H13)-1</f>
         <v>7.2900453889594319E-2</v>
       </c>
@@ -942,11 +951,11 @@
         <f>D$18*(1-$H15)</f>
         <v>0.06</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f>((1+E$18)^$H13*(1-$H15)+$H15)^(1/$H13)-1</f>
         <v>7.2900453889594319E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f>((1+F$18)^$H13*(1-$H15-0.1)+$H15+0.1)^(1/$H13)-1</f>
         <v>6.5708213930374626E-2</v>
       </c>
@@ -981,11 +990,11 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1003,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF9EED-0002-6A4F-A5EF-E08FABC666BE}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,9 +1028,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1030,56 +1040,56 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <f>50000*((1+C26)^D25)</f>
         <v>94346.828403759326</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f>C2*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>F2-C2</f>
         <v>357064.01503486664</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <f>50000*(1+C13)^15</f>
         <v>161637.66501773096</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>F3*D13</f>
         <v>107119.20451045998</v>
       </c>
@@ -1088,17 +1098,17 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f>F2-C6-F6</f>
         <v>182653.97391043504</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <f>F2-C6</f>
         <v>289773.17842089501</v>
       </c>
@@ -1107,7 +1117,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
@@ -1120,7 +1130,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
@@ -1129,11 +1139,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>((1+C$15)^$D12*(1-$D13)+$D13)^(1/$D12)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
@@ -1142,26 +1152,26 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="C15" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
@@ -1170,11 +1180,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>((1+C$15)^$D18*(1-$D19)+$D19)^(1/$D18)-1</f>
         <v>7.6725543136538787E-2</v>
       </c>
@@ -1183,29 +1193,29 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="C21" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
       <c r="C24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2"/>
@@ -1214,11 +1224,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f>((1+C$28)^$D25*(1-$D26-0.1)+$D26+0.1)^(1/$D25)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
@@ -1227,7 +1237,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1248,6 +1258,21 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD361F-F4B2-D947-8CE1-93F97CC908CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A551D5-C503-194A-8832-66CB491DD97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51240" yWindow="600" windowWidth="25460" windowHeight="42500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -114,28 +114,10 @@
     <t>Tax deduction benefit on interest that could have been avoided:</t>
   </si>
   <si>
-    <t>The tax deduction on the interest payment increases the value of holding the SPDA, but never by enough to change the decision.</t>
-  </si>
-  <si>
-    <t>The mortgage costs avoided are higher than the cash you get at the end.</t>
-  </si>
-  <si>
-    <t>A taxed dollar is better then no dollar at all.</t>
-  </si>
-  <si>
     <t>Option 1 Benefit with tax deduction (assumes we pay the interest at the end)</t>
   </si>
   <si>
     <t>Option 1 benefit without tax deduction</t>
-  </si>
-  <si>
-    <t>Arbitrage is limited by the rates on the accounts.</t>
-  </si>
-  <si>
-    <t>Note that you can come up with any number of strategies that change this answer</t>
-  </si>
-  <si>
-    <t>For example if you only pull 50k!</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF9EED-0002-6A4F-A5EF-E08FABC666BE}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,8 +1065,8 @@
         <v>14</v>
       </c>
       <c r="C6" s="16">
-        <f>50000*(1+C13)^15</f>
-        <v>161637.66501773096</v>
+        <f>50000*(1+C13)^D12</f>
+        <v>353392.72971279139</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>24</v>
@@ -1100,20 +1082,20 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>F2-C6-F6</f>
-        <v>182653.97391043504</v>
+        <v>-9101.0907846253976</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>F2-C6</f>
-        <v>289773.17842089501</v>
+        <v>98018.113725834584</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1243,36 +1225,6 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A551D5-C503-194A-8832-66CB491DD97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F32E84-C7EF-9341-8D78-40E8CC01F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51240" yWindow="600" windowWidth="25460" windowHeight="42500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -96,15 +96,9 @@
     <t>--&gt;</t>
   </si>
   <si>
-    <t>Mortgage costs avoided</t>
-  </si>
-  <si>
     <t>Interest payments avoided</t>
   </si>
   <si>
-    <t>Question 4</t>
-  </si>
-  <si>
     <t>Option 1 Raid the SPDA</t>
   </si>
   <si>
@@ -118,6 +112,9 @@
   </si>
   <si>
     <t>Option 1 benefit without tax deduction</t>
+  </si>
+  <si>
+    <t>total mortgage payments</t>
   </si>
 </sst>
 </file>
@@ -994,10 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF9EED-0002-6A4F-A5EF-E08FABC666BE}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,13 +1006,13 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1030,34 +1027,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F2" s="12">
         <f>C2*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="D3" s="9"/>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8">
         <f>F2-C2</f>
         <v>357064.01503486664</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="9"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -1069,49 +1066,46 @@
         <v>353392.72971279139</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="12">
         <f>F3*D13</f>
         <v>107119.20451045998</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>F2-C6-F6</f>
         <v>-9101.0907846253976</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>F2-C6</f>
         <v>98018.113725834584</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>7</v>
@@ -1133,17 +1127,17 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="C15" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">

--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F32E84-C7EF-9341-8D78-40E8CC01F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37C2F4-7CCE-6E47-8AB1-36E9016AD050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51240" yWindow="600" windowWidth="25460" windowHeight="42500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -105,16 +105,25 @@
     <t>Option 2 Hold the SPDA</t>
   </si>
   <si>
-    <t>Tax deduction benefit on interest that could have been avoided:</t>
-  </si>
-  <si>
-    <t>Option 1 Benefit with tax deduction (assumes we pay the interest at the end)</t>
-  </si>
-  <si>
-    <t>Option 1 benefit without tax deduction</t>
-  </si>
-  <si>
-    <t>total mortgage payments</t>
+    <t>total mortgage payments avoided</t>
+  </si>
+  <si>
+    <t>Tax deduction benefit on interest paid:</t>
+  </si>
+  <si>
+    <t>This is the benefit of this scenario</t>
+  </si>
+  <si>
+    <t>Option 1 Net Benefit with tax deduction (assumes we pay the interest at the end)</t>
+  </si>
+  <si>
+    <t>Option 1 net benefit without tax deduction</t>
+  </si>
+  <si>
+    <t>This is the benefit without deduction.</t>
+  </si>
+  <si>
+    <t>This is the benefit of the deduction.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +284,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,7 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -304,6 +312,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Comma" xfId="19" builtinId="3"/>
@@ -675,10 +689,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -991,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF9EED-0002-6A4F-A5EF-E08FABC666BE}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,13 +1020,13 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1020,21 +1034,21 @@
         <v>14</v>
       </c>
       <c r="C2" s="7">
-        <f>50000*((1+C26)^D25)</f>
+        <f>50000*((1+C28)^D27)</f>
         <v>94346.828403759326</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="E2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11">
         <f>C2*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="D3" s="9"/>
       <c r="E3" t="s">
@@ -1044,180 +1058,201 @@
         <f>F2-C2</f>
         <v>357064.01503486664</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="9"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16">
-        <f>50000*(1+C13)^D12</f>
+      <c r="C6" s="15">
+        <f>50000*(1+C15)^D14</f>
         <v>353392.72971279139</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="12">
-        <f>F3*D13</f>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="11">
+        <f>F3*D15</f>
         <v>107119.20451045998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <f>F2-C6-F6</f>
         <v>-9101.0907846253976</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <f>F2-C6</f>
         <v>98018.113725834584</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12">
+      <c r="C14" s="2"/>
+      <c r="D14">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" t="s">
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
-        <f>((1+C$15)^$D12*(1-$D13)+$D13)^(1/$D12)-1</f>
+      <c r="C15" s="3">
+        <f>((1+C$17)^$D14*(1-$D15)+$D15)^(1/$D14)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="C15" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="C17" t="s">
+      <c r="C17" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="C19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18">
+      <c r="C20" s="2"/>
+      <c r="D20">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="3">
-        <f>((1+C$15)^$D18*(1-$D19)+$D19)^(1/$D18)-1</f>
+      <c r="C21" s="3">
+        <f>((1+C$17)^$D20*(1-$D21)+$D21)^(1/$D20)-1</f>
         <v>7.6725543136538787E-2</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="C21" s="2">
-        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
+      <c r="C23" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25">
-        <v>10</v>
-      </c>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4">
-        <f>((1+C$28)^$D25*(1-$D26-0.1)+$D26+0.1)^(1/$D25)-1</f>
+      <c r="C28" s="4">
+        <f>((1+C$30)^$D27*(1-$D28-0.1)+$D28+0.1)^(1/$D27)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>

--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cahalcaomh/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37C2F4-7CCE-6E47-8AB1-36E9016AD050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDB410F0-4D4A-6042-8D6E-9B610D08FDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51240" yWindow="600" windowWidth="25460" windowHeight="42500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="21100" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Question 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Question 3 " sheetId="3" r:id="rId2"/>
+    <sheet name="Q1 Step 1" sheetId="5" r:id="rId1"/>
+    <sheet name="Q1 Step2" sheetId="6" r:id="rId2"/>
+    <sheet name="Q1 Step3" sheetId="7" r:id="rId3"/>
+    <sheet name="Q1 Step4" sheetId="8" r:id="rId4"/>
+    <sheet name="Q1 Step5" sheetId="9" r:id="rId5"/>
+    <sheet name="Question 1" sheetId="1" r:id="rId6"/>
+    <sheet name="Question 3 " sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +41,141 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0C6EB82E-0AB9-4244-B9CE-F7D96A60202F}</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{0C6EB82E-0AB9-4244-B9CE-F7D96A60202F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    r(1-t) where r is the yield and t is the tax rate.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{D4F4CCAB-0A78-6C41-920A-4CCA82294ACB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">r(1-t) where r is the yield and t is the tax rate.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{6EDD0842-A9E5-264A-B377-3440E04EBFE3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">{[(1+R)^n(1−t)+t]^(1/n)} −1 the SPDA annualized return.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{94088CED-4497-CA4E-AA5D-DA8BDE78EC04}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">r(1-t) where r is the yield and t is the tax rate.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{C9D983B0-6FEB-5E40-8ED3-CCE431409A3E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">{[(1+R)^n(1−t)+t]^(1/n)} −1 the SPDA annualized return.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{52798A67-0BC2-444A-A228-A52857045837}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>replace 't' with 't+.1' to increase the tax rate by the amount of the exise tax</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -124,6 +262,12 @@
   </si>
   <si>
     <t>This is the benefit of the deduction.</t>
+  </si>
+  <si>
+    <t>Rates:</t>
+  </si>
+  <si>
+    <t>Index of Years and Rates</t>
   </si>
 </sst>
 </file>
@@ -133,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +332,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,7 +441,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,14 +467,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="19" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Comma" xfId="19" builtinId="3"/>
@@ -352,6 +510,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Arthur Morris" id="{90485A80-BBDB-A04D-B9D3-D738207F102C}" userId="S::acarthur@ust.hk::c9c77807-0107-4eef-a133-78b8709f7043" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,12 +838,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D3" dT="2024-02-27T09:49:12.62" personId="{90485A80-BBDB-A04D-B9D3-D738207F102C}" id="{0C6EB82E-0AB9-4244-B9CE-F7D96A60202F}">
+    <text>r(1-t) where r is the yield and t is the tax rate.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D8886D-DD2A-4A44-974D-09FA07BA5A68}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,10 +861,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -714,6 +886,1414 @@
       </c>
       <c r="F3" t="s">
         <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8DFE8F-611D-1443-8E1B-25088C0A03FA}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <f>$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <f>$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19">
+        <f t="shared" ref="C8:C9" si="0">$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" ref="C11:C12" si="1">$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC6E4FE-D970-4C4E-95C0-004D95035A31}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <f>$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D5" s="19">
+        <f>D$18*(1-$H5)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <f>$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D6" s="19">
+        <f>D$18*(1-$H6)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19">
+        <f t="shared" ref="C8:C9" si="0">$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" ref="D7:D15" si="1">D$18*(1-$H8)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" ref="C11:C12" si="2">$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="2"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430F785C-716C-C541-8D5C-ED4B8DD5581C}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <f>$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D5" s="19">
+        <f>D$18*(1-$H5)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E5" s="19">
+        <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
+        <v>6.8253085229591726E-2</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <f>$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D6" s="19">
+        <f>D$18*(1-$H6)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" ref="E6:E15" si="0">((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
+        <v>5.6275013163937571E-2</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19">
+        <f t="shared" ref="C8:C9" si="1">$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" ref="D8:D16" si="2">D$18*(1-$H8)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>6.99107855780563E-2</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>5.6275013163937571E-2</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" ref="C11:C12" si="3">$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>7.3621759291163436E-2</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="3"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>5.6275013163937571E-2</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>7.9279124712805515E-2</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>5.6275013163937571E-2</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C3A85-0387-E148-9F37-B9D9AADDD4FB}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <f>$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D5" s="19">
+        <f>D$18*(1-$H5)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E5" s="19">
+        <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
+        <v>6.8253085229591726E-2</v>
+      </c>
+      <c r="F5" s="19">
+        <f>((1+F$18)^$H4*(1-$H5-0.1)+$H5+0.1)^(1/$H4)-1</f>
+        <v>5.9033004731903205E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <f>$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D6" s="19">
+        <f>D$18*(1-$H6)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" ref="E6:E15" si="0">((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
+        <v>5.6275013163937571E-2</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" ref="F6:F15" si="1">((1+F$18)^$H5*(1-$H6-0.1)+$H6+0.1)^(1/$H5)-1</f>
+        <v>4.6745718246369306E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19">
+        <f t="shared" ref="C8:C9" si="2">$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" ref="D8:D16" si="3">D$18*(1-$H8)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>6.99107855780563E-2</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>6.0998952177475196E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" si="2"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>5.6275013163937571E-2</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>4.6745718246369306E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" ref="C11:C12" si="4">$C$18</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>7.3621759291163436E-2</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="4"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>5.6275013163937571E-2</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>4.6745718246369306E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>7.9279124712805515E-2</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>7.2900453889594319E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>5.6275013163937571E-2</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>4.6745718246369306E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -969,6 +2549,9 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -1003,11 +2586,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF9EED-0002-6A4F-A5EF-E08FABC666BE}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1091,22 +2674,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8">

--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cahalcaomh/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDB410F0-4D4A-6042-8D6E-9B610D08FDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CA8BD-8F6B-7D46-87B8-90E869CB5922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="21100" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="21100" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 Step 1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Q1 Step4" sheetId="8" r:id="rId4"/>
     <sheet name="Q1 Step5" sheetId="9" r:id="rId5"/>
     <sheet name="Question 1" sheetId="1" r:id="rId6"/>
-    <sheet name="Question 3 " sheetId="3" r:id="rId7"/>
+    <sheet name="Q1 Step 1a" sheetId="10" r:id="rId7"/>
+    <sheet name="Question 3 " sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -174,8 +175,67 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{05387F42-02EC-274F-87EE-4EC1050F3AAE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This rate includes the 0.1 excise tax.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{FD82BE91-8231-1B4A-A01E-FFC178801137}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Avoiding mortgage interest is the point of raiding the SPDA! </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{45AD9568-A235-534B-B2E0-37BEE0EE6E9B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This rate includes the 0.1 excise tax.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="31">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -213,12 +273,6 @@
     <t>20 years</t>
   </si>
   <si>
-    <t>25 years</t>
-  </si>
-  <si>
-    <t>15 years</t>
-  </si>
-  <si>
     <t>50k SPDA @ 9.5%</t>
   </si>
   <si>
@@ -249,16 +303,10 @@
     <t>Tax deduction benefit on interest paid:</t>
   </si>
   <si>
-    <t>This is the benefit of this scenario</t>
-  </si>
-  <si>
     <t>Option 1 Net Benefit with tax deduction (assumes we pay the interest at the end)</t>
   </si>
   <si>
     <t>Option 1 net benefit without tax deduction</t>
-  </si>
-  <si>
-    <t>This is the benefit without deduction.</t>
   </si>
   <si>
     <t>This is the benefit of the deduction.</t>
@@ -268,6 +316,18 @@
   </si>
   <si>
     <t>Index of Years and Rates</t>
+  </si>
+  <si>
+    <t>25 years (SPDA term)</t>
+  </si>
+  <si>
+    <t>10 years (Raid the SPDA)</t>
+  </si>
+  <si>
+    <t>15 years (Mortgage)</t>
+  </si>
+  <si>
+    <t>Start by calculating the annual yields for each of the three assets implied by the question:</t>
   </si>
 </sst>
 </file>
@@ -358,7 +418,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -418,6 +478,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -441,7 +551,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,12 +580,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Comma" xfId="19" builtinId="3"/>
@@ -861,10 +978,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -888,17 +1005,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -907,10 +1024,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -919,10 +1036,10 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="H6">
         <v>0.4</v>
       </c>
@@ -931,10 +1048,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -943,10 +1060,10 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -955,10 +1072,10 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="H9">
         <v>0.4</v>
       </c>
@@ -967,10 +1084,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -979,10 +1096,10 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="H11">
         <v>0.3</v>
       </c>
@@ -991,10 +1108,10 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="H12">
         <v>0.4</v>
       </c>
@@ -1003,10 +1120,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -1015,10 +1132,10 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -1027,10 +1144,10 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
       <c r="H15">
         <v>0.4</v>
       </c>
@@ -1049,7 +1166,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>6.5000000000000002E-2</v>
@@ -1095,10 +1212,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1122,17 +1239,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -1141,13 +1258,13 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="2">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -1156,13 +1273,13 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="2">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="H6">
         <v>0.4</v>
       </c>
@@ -1171,10 +1288,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -1183,13 +1300,13 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="2">
         <f t="shared" ref="C8:C9" si="0">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -1198,13 +1315,13 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="H9">
         <v>0.4</v>
       </c>
@@ -1213,10 +1330,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -1225,13 +1342,13 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:C12" si="1">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="H11">
         <v>0.3</v>
       </c>
@@ -1240,13 +1357,13 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="H12">
         <v>0.4</v>
       </c>
@@ -1255,10 +1372,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -1267,12 +1384,12 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -1281,12 +1398,12 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
       <c r="H15">
         <v>0.4</v>
       </c>
@@ -1305,7 +1422,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>6.5000000000000002E-2</v>
@@ -1351,10 +1468,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1378,17 +1495,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -1397,16 +1514,16 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="2">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="2">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -1415,16 +1532,16 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="2">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="2">
         <f>D$18*(1-$H6)</f>
         <v>0.06</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="H6">
         <v>0.4</v>
       </c>
@@ -1433,10 +1550,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -1445,16 +1562,16 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="2">
         <f t="shared" ref="C8:C9" si="0">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="19">
-        <f t="shared" ref="D7:D15" si="1">D$18*(1-$H8)</f>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D15" si="1">D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -1463,16 +1580,16 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="H9">
         <v>0.4</v>
       </c>
@@ -1481,10 +1598,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -1493,16 +1610,16 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:C12" si="2">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="H11">
         <v>0.3</v>
       </c>
@@ -1511,16 +1628,16 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="2">
         <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="H12">
         <v>0.4</v>
       </c>
@@ -1529,10 +1646,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -1541,15 +1658,15 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -1558,15 +1675,15 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D15" s="2">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
       <c r="H15">
         <v>0.4</v>
       </c>
@@ -1585,7 +1702,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>6.5000000000000002E-2</v>
@@ -1632,10 +1749,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1659,17 +1776,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -1678,19 +1795,19 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="2">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="2">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="2">
         <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
         <v>6.8253085229591726E-2</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="2"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -1699,19 +1816,19 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="2">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="2">
         <f>D$18*(1-$H6)</f>
         <v>0.06</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="2">
         <f t="shared" ref="E6:E15" si="0">((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="2"/>
       <c r="H6">
         <v>0.4</v>
       </c>
@@ -1720,10 +1837,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -1732,19 +1849,19 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="2">
         <f t="shared" ref="C8:C9" si="1">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="19">
-        <f t="shared" ref="D8:D16" si="2">D$18*(1-$H8)</f>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D15" si="2">D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>6.99107855780563E-2</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="2"/>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -1753,19 +1870,19 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="2"/>
       <c r="H9">
         <v>0.4</v>
       </c>
@@ -1774,10 +1891,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -1786,19 +1903,19 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:C12" si="3">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>7.3621759291163436E-2</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="2"/>
       <c r="H11">
         <v>0.3</v>
       </c>
@@ -1807,19 +1924,19 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="2">
         <f t="shared" si="3"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="2"/>
       <c r="H12">
         <v>0.4</v>
       </c>
@@ -1828,10 +1945,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -1840,18 +1957,18 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>7.9279124712805515E-2</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="4"/>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -1860,18 +1977,18 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="4"/>
       <c r="H15">
         <v>0.4</v>
       </c>
@@ -1890,7 +2007,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>6.5000000000000002E-2</v>
@@ -1926,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C3A85-0387-E148-9F37-B9D9AADDD4FB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1937,10 +2054,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1964,17 +2081,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -1983,19 +2100,19 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="2">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="2">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="2">
         <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
         <v>6.8253085229591726E-2</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="2">
         <f>((1+F$18)^$H4*(1-$H5-0.1)+$H5+0.1)^(1/$H4)-1</f>
         <v>5.9033004731903205E-2</v>
       </c>
@@ -2007,19 +2124,19 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="2">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="2">
         <f>D$18*(1-$H6)</f>
         <v>0.06</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="2">
         <f t="shared" ref="E6:E15" si="0">((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="2">
         <f t="shared" ref="F6:F15" si="1">((1+F$18)^$H5*(1-$H6-0.1)+$H6+0.1)^(1/$H5)-1</f>
         <v>4.6745718246369306E-2</v>
       </c>
@@ -2031,10 +2148,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -2043,19 +2160,19 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="2">
         <f t="shared" ref="C8:C9" si="2">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="19">
-        <f t="shared" ref="D8:D16" si="3">D$18*(1-$H8)</f>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D15" si="3">D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>6.99107855780563E-2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>6.0998952177475196E-2</v>
       </c>
@@ -2067,19 +2184,19 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="2">
         <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="2">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>4.6745718246369306E-2</v>
       </c>
@@ -2091,10 +2208,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -2103,19 +2220,19 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:C12" si="4">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="2">
         <f t="shared" si="3"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>7.3621759291163436E-2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>6.5554653563975496E-2</v>
       </c>
@@ -2127,19 +2244,19 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="2">
         <f t="shared" si="4"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="2">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>4.6745718246369306E-2</v>
       </c>
@@ -2151,10 +2268,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -2163,18 +2280,18 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" si="3"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>7.9279124712805515E-2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>7.2900453889594319E-2</v>
       </c>
@@ -2186,18 +2303,18 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D15" s="2">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>4.6745718246369306E-2</v>
       </c>
@@ -2219,7 +2336,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>6.5000000000000002E-2</v>
@@ -2266,10 +2383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -2293,7 +2410,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2550,7 +2667,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>6.5000000000000002E-2</v>
@@ -2587,11 +2704,161 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF9EED-0002-6A4F-A5EF-E08FABC666BE}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35413F66-63CD-F34F-A7E9-F29B049B017B}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <f>((1+C$7)^$D4*(1-$D5)+$D5)^(1/$D4)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="C7" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <f>((1+C$7)^$D10*(1-$D11)+$D11)^(1/$D10)-1</f>
+        <v>7.6725543136538787E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="C13" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <f>((1+C$19)^$D16*(1-$D17-0.1)+$D17+0.1)^(1/$D16)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF9EED-0002-6A4F-A5EF-E08FABC666BE}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2603,199 +2870,193 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="21">
         <f>50000*((1+C28)^D27)</f>
         <v>94346.828403759326</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="11">
-        <f>C2*(1+0.11)^15</f>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="24">
+        <f>C3*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="7"/>
-      <c r="D3" s="9"/>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8">
-        <f>F2-C2</f>
-        <v>357064.01503486664</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="9"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15">
-        <f>50000*(1+C15)^D14</f>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="22">
+        <f>F3-C3</f>
+        <v>357064.01503486664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15">
+        <f>50000*(1+C16)^D15</f>
         <v>353392.72971279139</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="11">
-        <f>F3*D15</f>
+      <c r="E7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11">
+        <f>F4*D16</f>
         <v>107119.20451045998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="C7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="C8" s="17"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <f>F2-C6-F6</f>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <f>F3-C7-F7</f>
         <v>-9101.0907846253976</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <f>F3-C7</f>
+        <v>98018.113725834584</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15">
         <v>25</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <f>F2-C6</f>
-        <v>98018.113725834584</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
-        <f>((1+C$17)^$D14*(1-$D15)+$D15)^(1/$D14)-1</f>
+      <c r="C16" s="3">
+        <f>((1+C$18)^$D15*(1-$D16)+$D16)^(1/$D15)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="C17" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
+      <c r="C18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="C20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20">
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3">
-        <f>((1+C$17)^$D20*(1-$D21)+$D21)^(1/$D20)-1</f>
+      <c r="C22" s="3">
+        <f>((1+C$18)^$D21*(1-$D22)+$D22)^(1/$D21)-1</f>
         <v>7.6725543136538787E-2</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="C23" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
+      <c r="C24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
@@ -2803,24 +3064,24 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="C26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>((1+C$30)^$D27*(1-$D28-0.1)+$D28+0.1)^(1/$D27)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
@@ -2841,5 +3102,6 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cahalcaomh/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CA8BD-8F6B-7D46-87B8-90E869CB5922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C668F-EFAD-8D4C-977F-CEBF7DDBC453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="21100" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 Step 1" sheetId="5" r:id="rId1"/>
-    <sheet name="Q1 Step2" sheetId="6" r:id="rId2"/>
-    <sheet name="Q1 Step3" sheetId="7" r:id="rId3"/>
-    <sheet name="Q1 Step4" sheetId="8" r:id="rId4"/>
-    <sheet name="Q1 Step5" sheetId="9" r:id="rId5"/>
-    <sheet name="Question 1" sheetId="1" r:id="rId6"/>
-    <sheet name="Q1 Step 1a" sheetId="10" r:id="rId7"/>
-    <sheet name="Question 3 " sheetId="3" r:id="rId8"/>
+    <sheet name="Q1 S2" sheetId="6" r:id="rId2"/>
+    <sheet name="Q1 S3" sheetId="7" r:id="rId3"/>
+    <sheet name="Q1 S4" sheetId="8" r:id="rId4"/>
+    <sheet name="Q1 S5" sheetId="9" r:id="rId5"/>
+    <sheet name="Q1 full" sheetId="1" r:id="rId6"/>
+    <sheet name="Q2 S1 blank" sheetId="10" r:id="rId7"/>
+    <sheet name="Q2 S1" sheetId="11" r:id="rId8"/>
+    <sheet name="Q2 S2 blank" sheetId="12" r:id="rId9"/>
+    <sheet name="Q3 S2" sheetId="13" r:id="rId10"/>
+    <sheet name="Q3 S3 blank" sheetId="14" r:id="rId11"/>
+    <sheet name="Q3 S3" sheetId="15" r:id="rId12"/>
+    <sheet name="Q3 S4 blank" sheetId="16" r:id="rId13"/>
+    <sheet name="Q3 S4" sheetId="17" r:id="rId14"/>
+    <sheet name="Q3 S5 blank" sheetId="18" r:id="rId15"/>
+    <sheet name="Q3 S5 " sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,6 +62,117 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     r(1-t) where r is the yield and t is the tax rate.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{943182BF-EF66-9D4C-B045-B05BE6F65BB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calc this as though you took the money from the SPDA and loaned the money to someone else at the mortgage rate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{490F5461-79D6-804E-BF41-C1EC73A3697B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This rate includes the 0.1 excise tax.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{9DD5C18D-C4AC-4D48-8FE7-F0027390DC00}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calc this as though you took the money from the SPDA and loaned the money to someone else at the mortgage rate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{697C82D0-7332-5643-AFD9-E2F4014843C8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This rate includes the 0.1 excise tax.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{3FC53A06-EEA3-CB43-BAE2-BC1C8961F742}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calc this as though you took the money from the SPDA and loaned the money to someone else at the mortgage rate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{7F08BB5E-8FEE-004A-814D-F7BAB523EC99}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This rate includes the 0.1 excise tax.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -181,7 +300,7 @@
     <author>Cahal Caomh</author>
   </authors>
   <commentList>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{05387F42-02EC-274F-87EE-4EC1050F3AAE}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{78567947-282A-1F4B-9FA0-A5F495052A3D}">
       <text>
         <r>
           <rPr>
@@ -204,7 +323,7 @@
     <author>Cahal Caomh</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{FD82BE91-8231-1B4A-A01E-FFC178801137}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{6B506FC8-3CA7-8540-B7C0-390253B8B6B0}">
       <text>
         <r>
           <rPr>
@@ -213,11 +332,118 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Avoiding mortgage interest is the point of raiding the SPDA! </t>
+          <t>This rate includes the 0.1 excise tax.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{45AD9568-A235-534B-B2E0-37BEE0EE6E9B}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{DE156589-FD4B-6D40-A08D-9CF2B0143B91}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This rate includes the 0.1 excise tax.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{9C4A6E43-1FC6-4247-B1F1-B55518649F08}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This rate includes the 0.1 excise tax.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{3C24199B-CFF7-154E-A6F4-F9B4A0F1745A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calc this as though you took the money from the SPDA and loaned the money to someone else at the mortgage rate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{B0A2452C-CA10-D647-9082-EA68589A2094}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This rate includes the 0.1 excise tax.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cahal Caomh</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{6C73C14A-DA90-BC46-9CA6-E575B707D8E2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calc this as though you took the money from the SPDA and loaned the money to someone else at the mortgage rate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{D9DD7B35-583A-B346-9714-C30D6E44178C}">
       <text>
         <r>
           <rPr>
@@ -235,7 +461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="34">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -273,45 +499,6 @@
     <t>20 years</t>
   </si>
   <si>
-    <t>50k SPDA @ 9.5%</t>
-  </si>
-  <si>
-    <t>Cash flow at 59.5 when you cash out the spda and pay the mortgage</t>
-  </si>
-  <si>
-    <t>penalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash flow when you raid </t>
-  </si>
-  <si>
-    <t>--&gt;</t>
-  </si>
-  <si>
-    <t>Interest payments avoided</t>
-  </si>
-  <si>
-    <t>Option 1 Raid the SPDA</t>
-  </si>
-  <si>
-    <t>Option 2 Hold the SPDA</t>
-  </si>
-  <si>
-    <t>total mortgage payments avoided</t>
-  </si>
-  <si>
-    <t>Tax deduction benefit on interest paid:</t>
-  </si>
-  <si>
-    <t>Option 1 Net Benefit with tax deduction (assumes we pay the interest at the end)</t>
-  </si>
-  <si>
-    <t>Option 1 net benefit without tax deduction</t>
-  </si>
-  <si>
-    <t>This is the benefit of the deduction.</t>
-  </si>
-  <si>
     <t>Rates:</t>
   </si>
   <si>
@@ -324,18 +511,70 @@
     <t>10 years (Raid the SPDA)</t>
   </si>
   <si>
-    <t>15 years (Mortgage)</t>
+    <t>SPDA Held to Term (No Penalty):</t>
   </si>
   <si>
-    <t>Start by calculating the annual yields for each of the three assets implied by the question:</t>
+    <t>SPDA Raided After 10 Years (Penalty):</t>
+  </si>
+  <si>
+    <t>Start by calculating the annual yields for each of the two SPDAs  implied by the question:</t>
+  </si>
+  <si>
+    <t>Calculate the annual yields for each of the two SPDAs  implied by the question:</t>
+  </si>
+  <si>
+    <t>Next Calc the Cash Flows from the two SPDAs:</t>
+  </si>
+  <si>
+    <t>Option 1 Raid the SPDA:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 2 Hold the </t>
+  </si>
+  <si>
+    <t>Cash flow in year 10:
+50k SPDA @ 9.5% 10 yr, w/ .1 penalty</t>
+  </si>
+  <si>
+    <t>Cash flow in year 25: 59.5 when you cash out the SPDA and pay the mortgage</t>
+  </si>
+  <si>
+    <t>Now calc the benefit of raiding (interest avoided)</t>
+  </si>
+  <si>
+    <t>Mortgage payments avoided:</t>
+  </si>
+  <si>
+    <t>Mortgage interest avoided:</t>
+  </si>
+  <si>
+    <t>Mortgage interest is often tax deductable (businesses, US homeowners, several other countries):</t>
+  </si>
+  <si>
+    <t>Tax Deduction Benefit on Interest Paid:</t>
+  </si>
+  <si>
+    <t>Calculate benefit of option 1 relative to option 2 (w/ and w/o the deduction)</t>
+  </si>
+  <si>
+    <t>Benefit Option 1 
+(w/ int. deduction):</t>
+  </si>
+  <si>
+    <t>Benefit Option 1 
+(w/o deduction)</t>
+  </si>
+  <si>
+    <t>So the answer depends on how mortgage interest is taxed!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -363,21 +602,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -386,12 +610,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,6 +627,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="singleAccounting"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -418,7 +663,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -468,31 +713,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -516,20 +739,87 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -549,53 +839,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Comma" xfId="19" builtinId="3"/>
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -967,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D8886D-DD2A-4A44-974D-09FA07BA5A68}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -978,10 +1272,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1005,17 +1299,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -1024,10 +1318,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -1036,10 +1330,10 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="H6">
         <v>0.4</v>
       </c>
@@ -1048,10 +1342,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -1060,10 +1354,10 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -1072,10 +1366,10 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="H9">
         <v>0.4</v>
       </c>
@@ -1084,10 +1378,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -1096,10 +1390,10 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="H11">
         <v>0.3</v>
       </c>
@@ -1108,10 +1402,10 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="H12">
         <v>0.4</v>
       </c>
@@ -1120,10 +1414,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -1132,10 +1426,10 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -1144,49 +1438,49 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
       <c r="H15">
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1194,6 +1488,1252 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D347415-BF09-F74B-8365-50631DE649AC}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <f>50000*((1+C21)^D20)</f>
+        <v>94346.828403759326</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="28">
+        <f>50000*((1+C14)^D13)</f>
+        <v>353392.72971279139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3BF822-577B-1C4B-BE01-D6C7EFF27946}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <f>50000*((1+C21)^D20)</f>
+        <v>94346.828403759326</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="28">
+        <f>50000*((1+C14)^D13)</f>
+        <v>353392.72971279139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109A3135-A763-B84D-A5A8-89D670DB279A}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <f>50000*((1+C21)^D20)</f>
+        <v>94346.828403759326</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28">
+        <f>B3*(1+0.11)^15</f>
+        <v>451410.84343862598</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="28">
+        <f>D3-B3</f>
+        <v>357064.01503486664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="28">
+        <f>50000*((1+C14)^D13)</f>
+        <v>353392.72971279139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFD3035-55E6-CF4A-A689-902ADCA6F09E}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <f>50000*((1+C21)^D20)</f>
+        <v>94346.828403759326</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28">
+        <f>B3*(1+0.11)^15</f>
+        <v>451410.84343862598</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="28">
+        <f>D3-B3</f>
+        <v>357064.01503486664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="28">
+        <f>50000*((1+C14)^D13)</f>
+        <v>353392.72971279139</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F246985-C771-9248-A0EE-4A2FCFCA6370}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <f>50000*((1+C21)^D20)</f>
+        <v>94346.828403759326</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28">
+        <f>B3*(1+0.11)^15</f>
+        <v>451410.84343862598</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="28">
+        <f>D3-B3</f>
+        <v>357064.01503486664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="28">
+        <f>50000*((1+C14)^D13)</f>
+        <v>353392.72971279139</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="28">
+        <f>F3*D14</f>
+        <v>107119.20451045998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0018256-2F1B-7741-97D7-36129948E274}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <f>50000*((1+C21)^D20)</f>
+        <v>94346.828403759326</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28">
+        <f>B3*(1+0.11)^15</f>
+        <v>451410.84343862598</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="28">
+        <f>D3-B3</f>
+        <v>357064.01503486664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="28">
+        <f>50000*((1+C14)^D13)</f>
+        <v>353392.72971279139</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="28">
+        <f>F3*D14</f>
+        <v>107119.20451045998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A205CC2-97CB-CD4B-B865-BF664BCA343F}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <f>50000*((1+C21)^D20)</f>
+        <v>94346.828403759326</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28">
+        <f>B3*(1+0.11)^15</f>
+        <v>451410.84343862598</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="28">
+        <f>D3-B3</f>
+        <v>357064.01503486664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="28">
+        <f>50000*((1+C14)^D13)</f>
+        <v>353392.72971279139</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="28">
+        <f>F3*D14</f>
+        <v>107119.20451045998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="29">
+        <f>D3-B6-D6</f>
+        <v>-9101.0907846253976</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29">
+        <f>D3-B6</f>
+        <v>98018.113725834584</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1212,10 +2752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1239,17 +2779,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -1258,13 +2798,13 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -1273,13 +2813,13 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="H6">
         <v>0.4</v>
       </c>
@@ -1288,10 +2828,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -1300,13 +2840,13 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f t="shared" ref="C8:C9" si="0">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -1315,13 +2855,13 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="H9">
         <v>0.4</v>
       </c>
@@ -1330,10 +2870,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -1342,13 +2882,13 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" ref="C11:C12" si="1">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="H11">
         <v>0.3</v>
       </c>
@@ -1357,13 +2897,13 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="H12">
         <v>0.4</v>
       </c>
@@ -1372,10 +2912,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -1384,12 +2924,12 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -1398,51 +2938,51 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
       <c r="H15">
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1468,10 +3008,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1495,17 +3035,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -1514,16 +3054,16 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -1532,16 +3072,16 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>D$18*(1-$H6)</f>
         <v>0.06</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="H6">
         <v>0.4</v>
       </c>
@@ -1550,10 +3090,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -1562,16 +3102,16 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f t="shared" ref="C8:C9" si="0">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" ref="D8:D15" si="1">D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -1580,16 +3120,16 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="H9">
         <v>0.4</v>
       </c>
@@ -1598,10 +3138,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -1610,16 +3150,16 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" ref="C11:C12" si="2">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="H11">
         <v>0.3</v>
       </c>
@@ -1628,16 +3168,16 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="H12">
         <v>0.4</v>
       </c>
@@ -1646,10 +3186,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -1658,15 +3198,15 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -1675,54 +3215,54 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
       <c r="H15">
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1749,10 +3289,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1776,17 +3316,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -1795,19 +3335,19 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
         <v>6.8253085229591726E-2</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -1816,19 +3356,19 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>D$18*(1-$H6)</f>
         <v>0.06</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" ref="E6:E15" si="0">((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1"/>
       <c r="H6">
         <v>0.4</v>
       </c>
@@ -1837,10 +3377,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -1849,19 +3389,19 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f t="shared" ref="C8:C9" si="1">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" ref="D8:D15" si="2">D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>6.99107855780563E-2</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1"/>
       <c r="H8">
         <v>0.3</v>
       </c>
@@ -1870,19 +3410,19 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1"/>
       <c r="H9">
         <v>0.4</v>
       </c>
@@ -1891,10 +3431,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -1903,19 +3443,19 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" ref="C11:C12" si="3">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>7.3621759291163436E-2</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="1"/>
       <c r="H11">
         <v>0.3</v>
       </c>
@@ -1924,19 +3464,19 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" si="3"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="H12">
         <v>0.4</v>
       </c>
@@ -1945,10 +3485,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -1957,18 +3497,18 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>7.9279124712805515E-2</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -1977,57 +3517,57 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
       <c r="H15">
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2054,10 +3594,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -2081,17 +3621,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -2100,19 +3640,19 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
         <v>6.8253085229591726E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>((1+F$18)^$H4*(1-$H5-0.1)+$H5+0.1)^(1/$H4)-1</f>
         <v>5.9033004731903205E-2</v>
       </c>
@@ -2124,19 +3664,19 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>D$18*(1-$H6)</f>
         <v>0.06</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" ref="E6:E15" si="0">((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" ref="F6:F15" si="1">((1+F$18)^$H5*(1-$H6-0.1)+$H6+0.1)^(1/$H5)-1</f>
         <v>4.6745718246369306E-2</v>
       </c>
@@ -2148,10 +3688,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -2160,19 +3700,19 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f t="shared" ref="C8:C9" si="2">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" ref="D8:D15" si="3">D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>6.99107855780563E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>6.0998952177475196E-2</v>
       </c>
@@ -2184,19 +3724,19 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>4.6745718246369306E-2</v>
       </c>
@@ -2208,10 +3748,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -2220,19 +3760,19 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" ref="C11:C12" si="4">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="3"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>7.3621759291163436E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>6.5554653563975496E-2</v>
       </c>
@@ -2244,19 +3784,19 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" si="4"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>4.6745718246369306E-2</v>
       </c>
@@ -2268,10 +3808,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -2280,18 +3820,18 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="3"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>7.9279124712805515E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>7.2900453889594319E-2</v>
       </c>
@@ -2303,18 +3843,18 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>4.6745718246369306E-2</v>
       </c>
@@ -2323,40 +3863,40 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2383,10 +3923,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -2410,17 +3950,17 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -2429,19 +3969,19 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
         <v>6.8253085229591726E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>((1+F$18)^$H4*(1-$H5-0.1)+$H5+0.1)^(1/$H4)-1</f>
         <v>5.9033004731903205E-2</v>
       </c>
@@ -2453,19 +3993,19 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>D$18*(1-$H6)</f>
         <v>0.06</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>((1+E$18)^$H4*(1-$H6)+$H6)^(1/$H4)-1</f>
         <v>5.9033004731903205E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>((1+F$18)^$H4*(1-$H6-0.1)+$H6+0.1)^(1/$H4)-1</f>
         <v>4.9649523996295741E-2</v>
       </c>
@@ -2477,10 +4017,10 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7">
         <v>5</v>
       </c>
@@ -2489,19 +4029,19 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f>D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f>((1+E$18)^$H7*(1-$H8)+$H8)^(1/$H7)-1</f>
         <v>6.99107855780563E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>((1+F$18)^$H7*(1-$H8-0.1)+$H8+0.1)^(1/$H7)-1</f>
         <v>6.0998952177475196E-2</v>
       </c>
@@ -2513,19 +4053,19 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>D$18*(1-$H9)</f>
         <v>0.06</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f>((1+E$18)^$H7*(1-$H9)+$H9)^(1/$H7)-1</f>
         <v>6.0998952177474974E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f>((1+F$18)^$H7*(1-$H9-0.1)+$H9+0.1)^(1/$H7)-1</f>
         <v>5.1777231804168267E-2</v>
       </c>
@@ -2537,10 +4077,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -2549,19 +4089,19 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>D$18*(1-$H11)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>((1+E$18)^$H10*(1-$H11)+$H11)^(1/$H10)-1</f>
         <v>7.3621759291163436E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f>((1+F$18)^$H10*(1-$H11-0.1)+$H11+0.1)^(1/$H10)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
@@ -2573,19 +4113,19 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f>D$18*(1-$H12)</f>
         <v>0.06</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>((1+E$18)^$H10*(1-$H12)+$H12)^(1/$H10)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f>((1+F$18)^$H10*(1-$H12-0.1)+$H12+0.1)^(1/$H10)-1</f>
         <v>5.6897328865845864E-2</v>
       </c>
@@ -2597,10 +4137,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="H13">
         <v>20</v>
       </c>
@@ -2609,19 +4149,19 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f>D$18*(1-$H14)</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f>((1+E$18)^$H13*(1-$H14)+$H14)^(1/$H13)-1</f>
         <v>7.9279124712805515E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f>((1+F$18)^$H13*(1-$H14-0.1)+$H14+0.1)^(1/$H13)-1</f>
         <v>7.2900453889594319E-2</v>
       </c>
@@ -2633,19 +4173,19 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f>C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f>D$18*(1-$H15)</f>
         <v>0.06</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>((1+E$18)^$H13*(1-$H15)+$H15)^(1/$H13)-1</f>
         <v>7.2900453889594319E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f>((1+F$18)^$H13*(1-$H15-0.1)+$H15+0.1)^(1/$H13)-1</f>
         <v>6.5708213930374626E-2</v>
       </c>
@@ -2654,40 +4194,40 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2704,10 +4244,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35413F66-63CD-F34F-A7E9-F29B049B017B}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35413F66-63CD-F34F-A7E9-F29B049B017B}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2718,148 +4258,112 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <f>((1+C$7)^$D4*(1-$D5)+$D5)^(1/$D4)-1</f>
-        <v>8.1362996539522836E-2</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2"/>
+      <c r="D5" s="17">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="C7" s="2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20">
         <v>9.5000000000000001E-2</v>
       </c>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
-        <f>((1+C$7)^$D10*(1-$D11)+$D11)^(1/$D10)-1</f>
-        <v>7.6725543136538787E-2</v>
-      </c>
-      <c r="D11">
+      <c r="C12" s="2"/>
+      <c r="D12" s="17">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="C12" s="2"/>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="C13" s="2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <f>((1+C$19)^$D16*(1-$D17-0.1)+$D17+0.1)^(1/$D16)-1</f>
-        <v>6.5554653563975496E-2</v>
-      </c>
-      <c r="D17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
+      <c r="D14" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF9EED-0002-6A4F-A5EF-E08FABC666BE}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690EF5D9-B3DB-DB47-9A88-E4B8ADB7B1CA}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2870,236 +4374,261 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <f>((1+C$7)^$D4*(1-$D5)+$D5)^(1/$D4)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="21">
-        <f>50000*((1+C28)^D27)</f>
-        <v>94346.828403759326</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <f>((1+C$14)^$D11*(1-$D12-0.1)+$D12+0.1)^(1/$D11)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84B885E-C986-5A44-B01E-7AA082522F43}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="24">
-        <f>C3*(1+0.11)^15</f>
-        <v>451410.84343862598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4" s="9"/>
-      <c r="E4" t="s">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
+        <v>8.1362996539522836E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="22">
-        <f>F3-C3</f>
-        <v>357064.01503486664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="15">
-        <f>50000*(1+C16)^D15</f>
-        <v>353392.72971279139</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="11">
-        <f>F4*D16</f>
-        <v>107119.20451045998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <f>F3-C7-F7</f>
-        <v>-9101.0907846253976</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <f>F3-C7</f>
-        <v>98018.113725834584</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" t="s">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
-        <f>((1+C$18)^$D15*(1-$D16)+$D16)^(1/$D15)-1</f>
-        <v>8.1362996539522836E-2</v>
-      </c>
-      <c r="D16">
+      <c r="C21" s="2">
+        <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
+        <v>6.5554653563975496E-2</v>
+      </c>
+      <c r="D21" s="17">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="C18" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
-        <f>((1+C$18)^$D21*(1-$D22)+$D22)^(1/$D21)-1</f>
-        <v>7.6725543136538787E-2</v>
-      </c>
-      <c r="D22">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="C24" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3">
-        <f>((1+C$30)^$D27*(1-$D28-0.1)+$D28+0.1)^(1/$D27)-1</f>
-        <v>6.5554653563975496E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
+      <c r="D23" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>

--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cahalcaomh/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiernanmahon/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C668F-EFAD-8D4C-977F-CEBF7DDBC453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F07FF-EC8C-134F-9652-8D47F7107922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 Step 1" sheetId="5" r:id="rId1"/>
@@ -461,7 +461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="35">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -567,6 +567,9 @@
   <si>
     <t>So the answer depends on how mortgage interest is taxed!</t>
   </si>
+  <si>
+    <t>pen.</t>
+  </si>
 </sst>
 </file>
 
@@ -574,9 +577,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,6 +656,11 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="LMRoman10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -840,7 +848,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -857,17 +865,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -885,9 +888,13 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1261,23 +1268,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D8886D-DD2A-4A44-974D-09FA07BA5A68}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1333,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1369,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1417,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -1446,19 +1453,19 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -1475,10 +1482,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
@@ -1495,11 +1502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D347415-BF09-F74B-8365-50631DE649AC}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -1508,140 +1515,135 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="51">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <f>50000*((1+C21)^D20)</f>
         <v>94346.828403759326</v>
       </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="68">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>50000*((1+C14)^D13)</f>
         <v>353392.72971279139</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:4" ht="19">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:4" ht="17" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+    <row r="15" spans="1:4">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1654,11 +1656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3BF822-577B-1C4B-BE01-D6C7EFF27946}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView zoomScale="290" zoomScaleNormal="290" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -1667,147 +1669,143 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="85">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <f>50000*((1+C21)^D20)</f>
         <v>94346.828403759326</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="24"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="68">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>50000*((1+C14)^D13)</f>
         <v>353392.72971279139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" ht="19">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:6" ht="17" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1820,11 +1818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109A3135-A763-B84D-A5A8-89D670DB279A}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -1834,153 +1832,149 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="49" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <f>50000*((1+C21)^D20)</f>
         <v>94346.828403759326</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <f>B3*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <f>D3-B3</f>
         <v>357064.01503486664</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="68">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>50000*((1+C14)^D13)</f>
         <v>353392.72971279139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" ht="19">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:6" ht="17" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1993,11 +1987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFD3035-55E6-CF4A-A689-902ADCA6F09E}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2007,157 +2001,153 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="49" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <f>50000*((1+C21)^D20)</f>
         <v>94346.828403759326</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <f>B3*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <f>D3-B3</f>
         <v>357064.01503486664</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="79" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>50000*((1+C14)^D13)</f>
         <v>353392.72971279139</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="19">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:6" ht="17" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2170,11 +2160,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F246985-C771-9248-A0EE-4A2FCFCA6370}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="270" zoomScaleNormal="270" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2184,160 +2174,156 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="49" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <f>50000*((1+C21)^D20)</f>
         <v>94346.828403759326</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <f>B3*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <f>D3-B3</f>
         <v>357064.01503486664</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="79" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>50000*((1+C14)^D13)</f>
         <v>353392.72971279139</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="25">
         <f>F3*D14</f>
         <v>107119.20451045998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" ht="19">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:6" ht="17" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2350,11 +2336,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0018256-2F1B-7741-97D7-36129948E274}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="230" zoomScaleNormal="230" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2364,171 +2350,167 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="49" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <f>50000*((1+C21)^D20)</f>
         <v>94346.828403759326</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <f>B3*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <f>D3-B3</f>
         <v>357064.01503486664</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="63" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>50000*((1+C14)^D13)</f>
         <v>353392.72971279139</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="25">
         <f>F3*D14</f>
         <v>107119.20451045998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="17" thickBot="1"/>
+    <row r="8" spans="1:6" ht="38" customHeight="1" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="D8" s="27"/>
+    </row>
+    <row r="10" spans="1:6" ht="19">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:6" ht="17" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2541,11 +2523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A205CC2-97CB-CD4B-B865-BF664BCA343F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2555,73 +2537,73 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="49" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <f>50000*((1+C21)^D20)</f>
         <v>94346.828403759326</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <f>B3*(1+0.11)^15</f>
         <v>451410.84343862598</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <f>D3-B3</f>
         <v>357064.01503486664</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="63" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>50000*((1+C14)^D13)</f>
         <v>353392.72971279139</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="25">
         <f>F3*D14</f>
         <v>107119.20451045998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="17" thickBot="1"/>
+    <row r="8" spans="1:6" ht="38" customHeight="1" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <f>D3-B6-D6</f>
         <v>-9101.0907846253976</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="26">
         <f>D3-B6</f>
         <v>98018.113725834584</v>
       </c>
@@ -2629,106 +2611,102 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" ht="19">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:6" ht="17" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2741,23 +2719,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8DFE8F-611D-1443-8E1B-25088C0A03FA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -2782,7 +2760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2787,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -2824,7 +2802,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2836,7 +2814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2851,7 +2829,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2866,7 +2844,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2878,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -2893,7 +2871,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -2908,7 +2886,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2920,7 +2898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +2912,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -2948,19 +2926,19 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -2977,10 +2955,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
@@ -2997,23 +2975,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC6E4FE-D970-4C4E-95C0-004D95035A31}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -3038,7 +3016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3050,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3068,7 +3046,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3064,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3098,7 +3076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3116,7 +3094,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3112,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3146,7 +3124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -3164,7 +3142,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -3182,7 +3160,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3194,7 +3172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -3211,7 +3189,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -3228,19 +3206,19 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -3257,10 +3235,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
@@ -3278,23 +3256,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430F785C-716C-C541-8D5C-ED4B8DD5581C}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -3302,7 +3280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -3319,7 +3297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3331,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3347,12 +3325,12 @@
         <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
         <v>6.8253085229591726E-2</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="28"/>
       <c r="H5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -3365,7 +3343,7 @@
         <v>0.06</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E15" si="0">((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
+        <f>((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
         <v>5.6275013163937571E-2</v>
       </c>
       <c r="F6" s="1"/>
@@ -3373,7 +3351,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3385,20 +3363,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C9" si="1">$C$18</f>
+        <f t="shared" ref="C8:C9" si="0">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:D15" si="2">D$18*(1-$H8)</f>
+        <f t="shared" ref="D8:D15" si="1">D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E8:E15" si="2">((1+E$18)^$H7*(1-$H8)+$H8)^(1/$H7)-1</f>
         <v>6.99107855780563E-2</v>
       </c>
       <c r="F8" s="1"/>
@@ -3406,20 +3384,20 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
       <c r="F9" s="1"/>
@@ -3427,7 +3405,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3439,7 +3417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -3448,11 +3426,11 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
         <v>7.3621759291163436E-2</v>
       </c>
       <c r="F11" s="1"/>
@@ -3460,7 +3438,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -3469,11 +3447,11 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
       <c r="F12" s="1"/>
@@ -3481,7 +3459,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3493,7 +3471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -3501,11 +3479,11 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
         <v>7.9279124712805515E-2</v>
       </c>
       <c r="F14" s="3"/>
@@ -3513,7 +3491,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -3521,11 +3499,11 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
         <v>5.6275013163937571E-2</v>
       </c>
       <c r="F15" s="3"/>
@@ -3533,19 +3511,19 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -3562,10 +3540,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
@@ -3581,25 +3559,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C3A85-0387-E148-9F37-B9D9AADDD4FB}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:9">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -3624,7 +3602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3635,8 +3613,11 @@
       <c r="H4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3659,8 +3640,12 @@
       <c r="H5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f>H5+0.1</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -3683,8 +3668,12 @@
       <c r="H6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f>H6+0.1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3696,7 +3685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3719,8 +3708,12 @@
       <c r="H8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" ref="I8:I15" si="4">H8+0.1</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3743,8 +3736,12 @@
       <c r="H9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3756,12 +3753,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C12" si="4">$C$18</f>
+        <f t="shared" ref="C11:C12" si="5">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D11" s="1">
@@ -3779,13 +3776,17 @@
       <c r="H11">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D12" s="1">
@@ -3803,8 +3804,12 @@
       <c r="H12">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -3838,8 +3843,12 @@
       <c r="H14">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -3861,20 +3870,24 @@
       <c r="H15">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -3891,10 +3904,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
@@ -3912,23 +3925,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -3936,7 +3949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -3953,7 +3966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" thickBot="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3965,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" thickBot="1">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3989,7 +4002,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17" thickBot="1">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -4013,7 +4026,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" thickBot="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4025,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17" thickBot="1">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -4049,7 +4062,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17" thickBot="1">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -4073,7 +4086,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" thickBot="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4085,7 +4098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17" thickBot="1">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -4109,7 +4122,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17" thickBot="1">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -4133,7 +4146,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17" thickBot="1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4145,7 +4158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17" thickBot="1">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="17" thickBot="1">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -4193,19 +4206,19 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -4222,10 +4235,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
@@ -4247,9 +4260,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35413F66-63CD-F34F-A7E9-F29B049B017B}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -4258,100 +4273,96 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
+      <c r="C4" s="1"/>
+      <c r="D4" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:4" ht="17" thickBot="1">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20">
+    <row r="6" spans="1:4">
+      <c r="A6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="23" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" thickBot="1">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20">
+    <row r="13" spans="1:4">
+      <c r="A13" s="13"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4363,9 +4374,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690EF5D9-B3DB-DB47-9A88-E4B8ADB7B1CA}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -4374,106 +4387,102 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
+      <c r="C4" s="1"/>
+      <c r="D4" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:4" ht="17" thickBot="1">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
         <f>((1+C$7)^$D4*(1-$D5)+$D5)^(1/$D4)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20">
+    <row r="6" spans="1:4">
+      <c r="A6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="23" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" thickBot="1">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="C11" s="1"/>
+      <c r="D11" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2">
         <f>((1+C$14)^$D11*(1-$D12-0.1)+$D12+0.1)^(1/$D11)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20">
+    <row r="13" spans="1:4">
+      <c r="A13" s="13"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4486,11 +4495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84B885E-C986-5A44-B01E-7AA082522F43}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="270" zoomScaleNormal="270" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -4499,134 +4508,129 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="51">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="68">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="19">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="1"/>
+      <c r="D13" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:4" ht="17" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f>((1+C$16)^$D13*(1-$D14)+$D14)^(1/$D13)-1</f>
         <v>8.1362996539522836E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+    <row r="15" spans="1:4">
+      <c r="A15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" ht="17" thickBot="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
         <f>((1+C$23)^$D20*(1-$D21-0.1)+$D21+0.1)^(1/$D20)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiernanmahon/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F07FF-EC8C-134F-9652-8D47F7107922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C31D03-2CF6-0A42-842B-EF034CFA114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19540" tabRatio="500" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 Step 1" sheetId="5" r:id="rId1"/>
@@ -193,7 +193,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">r(1-t) where r is the yield and t is the tax rate.
 </t>
@@ -208,7 +207,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">{[(1+R)^n(1−t)+t]^(1/n)} −1 the SPDA annualized return.
 </t>
@@ -219,7 +217,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -461,7 +458,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="36">
   <si>
     <t>Tax-Exempt</t>
   </si>
@@ -570,6 +567,9 @@
   <si>
     <t>pen.</t>
   </si>
+  <si>
+    <t>Index of Years and Tax Rates</t>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +579,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -661,6 +661,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="LMRoman10"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1268,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D8886D-DD2A-4A44-974D-09FA07BA5A68}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1503,7 +1509,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1819,7 +1825,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2161,7 +2167,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="270" zoomScaleNormal="270" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2523,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A205CC2-97CB-CD4B-B865-BF664BCA343F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2720,7 +2726,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2976,7 +2982,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3013,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3256,7 +3262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430F785C-716C-C541-8D5C-ED4B8DD5581C}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3926,7 +3932,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4375,7 +4381,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
+++ b/assets/slides/acct3210/S8/AlternativeSavingsVehiclesCalc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C31D03-2CF6-0A42-842B-EF034CFA114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C67435E-659C-094D-B4AE-5A75AF57ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19540" tabRatio="500" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 Step 1" sheetId="5" r:id="rId1"/>
@@ -854,7 +854,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -901,6 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1275,7 +1276,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1312,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1825,7 +1826,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2343,7 +2344,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="230" zoomScaleNormal="230" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2529,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A205CC2-97CB-CD4B-B865-BF664BCA343F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2726,7 +2727,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2786,7 +2787,10 @@
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <f>D18*(1-H5)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="H5">
@@ -2982,7 +2986,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3262,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430F785C-716C-C541-8D5C-ED4B8DD5581C}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E5:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3328,7 +3332,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E5" s="1">
-        <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
+        <f>((1+E$18)^$H$4*(1-$H5)+$H5)^(1/$H$4)-1</f>
         <v>6.8253085229591726E-2</v>
       </c>
       <c r="F5" s="28"/>
@@ -3349,8 +3353,8 @@
         <v>0.06</v>
       </c>
       <c r="E6" s="1">
-        <f>((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
-        <v>5.6275013163937571E-2</v>
+        <f>((1+E$18)^$H$4*(1-$H6)+$H6)^(1/$H$4)-1</f>
+        <v>5.9033004731903205E-2</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6">
@@ -3382,7 +3386,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:E15" si="2">((1+E$18)^$H7*(1-$H8)+$H8)^(1/$H7)-1</f>
+        <f>((1+E$18)^$H$7*(1-$H8)+$H8)^(1/$H$7)-1</f>
         <v>6.99107855780563E-2</v>
       </c>
       <c r="F8" s="1"/>
@@ -3403,8 +3407,8 @@
         <v>0.06</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6275013163937571E-2</v>
+        <f>((1+E$18)^$H$7*(1-$H9)+$H9)^(1/$H$7)-1</f>
+        <v>6.0998952177474974E-2</v>
       </c>
       <c r="F9" s="1"/>
       <c r="H9">
@@ -3428,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C12" si="3">$C$18</f>
+        <f t="shared" ref="C11:C12" si="2">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D11" s="1">
@@ -3436,7 +3440,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f>((1+E$18)^$H$10*(1-$H11)+$H11)^(1/$H$10)-1</f>
         <v>7.3621759291163436E-2</v>
       </c>
       <c r="F11" s="1"/>
@@ -3449,7 +3453,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D12" s="1">
@@ -3457,8 +3461,8 @@
         <v>0.06</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6275013163937571E-2</v>
+        <f>((1+E$18)^$H$10*(1-$H12)+$H12)^(1/$H$10)-1</f>
+        <v>6.5554653563975496E-2</v>
       </c>
       <c r="F12" s="1"/>
       <c r="H12">
@@ -3489,7 +3493,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E8:E15" si="3">((1+E$18)^$H13*(1-$H14)+$H14)^(1/$H13)-1</f>
         <v>7.9279124712805515E-2</v>
       </c>
       <c r="F14" s="3"/>
@@ -3509,8 +3513,8 @@
         <v>0.06</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6275013163937571E-2</v>
+        <f>((1+E$18)^$H13*(1-$H15)+$H15)^(1/$H13)-1</f>
+        <v>7.2900453889594319E-2</v>
       </c>
       <c r="F15" s="3"/>
       <c r="H15">
@@ -3567,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C3A85-0387-E148-9F37-B9D9AADDD4FB}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3631,12 +3635,12 @@
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="30">
         <f>D$18*(1-$H5)</f>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E5" s="1">
-        <f>((1+E$18)^$H4*(1-$H5)+$H5)^(1/$H4)-1</f>
+        <f>((1+E$18)^$H$4*(1-$H5)+$H5)^(1/$H$4)-1</f>
         <v>6.8253085229591726E-2</v>
       </c>
       <c r="F5" s="1">
@@ -3655,7 +3659,7 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="30">
         <f>$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -3664,12 +3668,12 @@
         <v>0.06</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E15" si="0">((1+E$18)^$H5*(1-$H6)+$H6)^(1/$H5)-1</f>
-        <v>5.6275013163937571E-2</v>
+        <f>((1+E$18)^$H$4*(1-$H6)+$H6)^(1/$H$4)-1</f>
+        <v>5.9033004731903205E-2</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F15" si="1">((1+F$18)^$H5*(1-$H6-0.1)+$H6+0.1)^(1/$H5)-1</f>
-        <v>4.6745718246369306E-2</v>
+        <f>((1+F$18)^$H4*(1-$H6-0.1)+$H6+0.1)^(1/$H4)-1</f>
+        <v>4.9649523996295741E-2</v>
       </c>
       <c r="H6">
         <v>0.4</v>
@@ -3696,26 +3700,26 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C9" si="2">$C$18</f>
+        <f t="shared" ref="C8:C9" si="0">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:D15" si="3">D$18*(1-$H8)</f>
+      <c r="D8" s="30">
+        <f t="shared" ref="D8:D15" si="1">D$18*(1-$H8)</f>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f>((1+E$18)^$H$7*(1-$H8)+$H8)^(1/$H$7)-1</f>
         <v>6.99107855780563E-2</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f>((1+F$18)^$H7*(1-$H8-0.1)+$H8+0.1)^(1/$H7)-1</f>
         <v>6.0998952177475196E-2</v>
       </c>
       <c r="H8">
         <v>0.3</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I15" si="4">H8+0.1</f>
+        <f t="shared" ref="I8:I15" si="2">H8+0.1</f>
         <v>0.4</v>
       </c>
     </row>
@@ -3723,27 +3727,27 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="2"/>
+      <c r="C9" s="30">
+        <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6275013163937571E-2</v>
+        <f>((1+E$18)^$H$7*(1-$H9)+$H9)^(1/$H$7)-1</f>
+        <v>6.0998952177474974E-2</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6745718246369306E-2</v>
+        <f>((1+F$18)^$H7*(1-$H9-0.1)+$H9+0.1)^(1/$H7)-1</f>
+        <v>5.1777231804168267E-2</v>
       </c>
       <c r="H9">
         <v>0.4</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3764,26 +3768,26 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C12" si="5">$C$18</f>
+        <f t="shared" ref="C11:C12" si="3">$C$18</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="3"/>
+      <c r="D11" s="30">
+        <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f>((1+E$18)^$H$10*(1-$H11)+$H11)^(1/$H$10)-1</f>
         <v>7.3621759291163436E-2</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f>((1+F$18)^$H10*(1-$H11-0.1)+$H11+0.1)^(1/$H10)-1</f>
         <v>6.5554653563975496E-2</v>
       </c>
       <c r="H11">
         <v>0.3</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
@@ -3791,27 +3795,27 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="5"/>
+      <c r="C12" s="30">
+        <f t="shared" si="3"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6275013163937571E-2</v>
+        <f>((1+E$18)^$H$10*(1-$H12)+$H12)^(1/$H$10)-1</f>
+        <v>6.5554653563975496E-2</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6745718246369306E-2</v>
+        <f>((1+F$18)^$H10*(1-$H12-0.1)+$H12+0.1)^(1/$H10)-1</f>
+        <v>5.6897328865845864E-2</v>
       </c>
       <c r="H12">
         <v>0.4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3835,22 +3839,22 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E14:F14" si="4">((1+E$18)^$H13*(1-$H14)+$H14)^(1/$H13)-1</f>
         <v>7.9279124712805515E-2</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
+      <c r="F14" s="30">
+        <f>((1+F$18)^$H13*(1-$H14-0.1)+$H14+0.1)^(1/$H13)-1</f>
         <v>7.2900453889594319E-2</v>
       </c>
       <c r="H14">
         <v>0.3</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
@@ -3862,22 +3866,22 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6275013163937571E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6745718246369306E-2</v>
+        <f>((1+E$18)^$H13*(1-$H15)+$H15)^(1/$H13)-1</f>
+        <v>7.2900453889594319E-2</v>
+      </c>
+      <c r="F15" s="30">
+        <f>((1+F$18)^$H13*(1-$H15-0.1)+$H15+0.1)^(1/$H13)-1</f>
+        <v>6.5708213930374626E-2</v>
       </c>
       <c r="H15">
         <v>0.4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3932,7 +3936,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4267,7 +4271,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4381,7 +4385,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
